--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/App-Cd74.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/App-Cd74.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="H2">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="I2">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="J2">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.0704656666667</v>
+        <v>2.429935333333333</v>
       </c>
       <c r="N2">
-        <v>423.2113970000001</v>
+        <v>7.289806</v>
       </c>
       <c r="O2">
-        <v>0.05525296614535039</v>
+        <v>0.0007999299918632063</v>
       </c>
       <c r="P2">
-        <v>0.05525296614535039</v>
+        <v>0.0007999299918632063</v>
       </c>
       <c r="Q2">
-        <v>15639.13215494249</v>
+        <v>279.9804764981164</v>
       </c>
       <c r="R2">
-        <v>140752.1893944824</v>
+        <v>2519.824288483048</v>
       </c>
       <c r="S2">
-        <v>0.01386731237958099</v>
+        <v>0.0002229731854343324</v>
       </c>
       <c r="T2">
-        <v>0.01386731237958099</v>
+        <v>0.0002229731854343324</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="H3">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="I3">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="J3">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>9.928663999999999</v>
       </c>
       <c r="O3">
-        <v>0.001296250856544298</v>
+        <v>0.001089498967837074</v>
       </c>
       <c r="P3">
-        <v>0.001296250856544298</v>
+        <v>0.001089498967837074</v>
       </c>
       <c r="Q3">
-        <v>366.8986457328791</v>
+        <v>381.3314205768569</v>
       </c>
       <c r="R3">
-        <v>3302.087811595912</v>
+        <v>3431.982785191712</v>
       </c>
       <c r="S3">
-        <v>0.0003253312320412299</v>
+        <v>0.0003036878950121828</v>
       </c>
       <c r="T3">
-        <v>0.0003253312320412299</v>
+        <v>0.0003036878950121827</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="H4">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="I4">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="J4">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6061513333333334</v>
+        <v>1.214141</v>
       </c>
       <c r="N4">
-        <v>1.818454</v>
+        <v>3.642423</v>
       </c>
       <c r="O4">
-        <v>0.0002374108495449544</v>
+        <v>0.0003996928588706414</v>
       </c>
       <c r="P4">
-        <v>0.0002374108495449544</v>
+        <v>0.0003996928588706414</v>
       </c>
       <c r="Q4">
-        <v>67.19819604405356</v>
+        <v>139.8949885837426</v>
       </c>
       <c r="R4">
-        <v>604.783764396482</v>
+        <v>1259.054897253684</v>
       </c>
       <c r="S4">
-        <v>5.958504389213924E-05</v>
+        <v>0.0001114107369948223</v>
       </c>
       <c r="T4">
-        <v>5.958504389213924E-05</v>
+        <v>0.0001114107369948222</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="H5">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="I5">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="J5">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2408.188354666667</v>
+        <v>3030.731364</v>
       </c>
       <c r="N5">
-        <v>7224.565064</v>
+        <v>9092.194092</v>
       </c>
       <c r="O5">
-        <v>0.9432133721485603</v>
+        <v>0.9977108781814291</v>
       </c>
       <c r="P5">
-        <v>0.9432133721485604</v>
+        <v>0.9977108781814292</v>
       </c>
       <c r="Q5">
-        <v>266972.790900233</v>
+        <v>349205.0178415611</v>
       </c>
       <c r="R5">
-        <v>2402755.118102097</v>
+        <v>3142845.16057405</v>
       </c>
       <c r="S5">
-        <v>0.2367263766034531</v>
+        <v>0.2781028026370602</v>
       </c>
       <c r="T5">
-        <v>0.2367263766034531</v>
+        <v>0.2781028026370602</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>554.525406</v>
       </c>
       <c r="I6">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="J6">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>141.0704656666667</v>
+        <v>2.429935333333333</v>
       </c>
       <c r="N6">
-        <v>423.2113970000001</v>
+        <v>7.289806</v>
       </c>
       <c r="O6">
-        <v>0.05525296614535039</v>
+        <v>0.0007999299918632063</v>
       </c>
       <c r="P6">
-        <v>0.05525296614535039</v>
+        <v>0.0007999299918632063</v>
       </c>
       <c r="Q6">
-        <v>26075.7190828058</v>
+        <v>449.153625756804</v>
       </c>
       <c r="R6">
-        <v>234681.4717452522</v>
+        <v>4042.382631811236</v>
       </c>
       <c r="S6">
-        <v>0.02312149667008163</v>
+        <v>0.0003577007080529357</v>
       </c>
       <c r="T6">
-        <v>0.02312149667008163</v>
+        <v>0.0003577007080529357</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>554.525406</v>
       </c>
       <c r="I7">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="J7">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>9.928663999999999</v>
       </c>
       <c r="O7">
-        <v>0.001296250856544298</v>
+        <v>0.001089498967837074</v>
       </c>
       <c r="P7">
-        <v>0.001296250856544298</v>
+        <v>0.001089498967837074</v>
       </c>
       <c r="Q7">
         <v>611.7440484041761</v>
@@ -883,10 +883,10 @@
         <v>5505.696435637584</v>
       </c>
       <c r="S7">
-        <v>0.0005424371206486182</v>
+        <v>0.0004871858239875921</v>
       </c>
       <c r="T7">
-        <v>0.0005424371206486182</v>
+        <v>0.0004871858239875921</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>554.525406</v>
       </c>
       <c r="I8">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="J8">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6061513333333334</v>
+        <v>1.214141</v>
       </c>
       <c r="N8">
-        <v>1.818454</v>
+        <v>3.642423</v>
       </c>
       <c r="O8">
-        <v>0.0002374108495449544</v>
+        <v>0.0003996928588706414</v>
       </c>
       <c r="P8">
-        <v>0.0002374108495449544</v>
+        <v>0.0003996928588706414</v>
       </c>
       <c r="Q8">
-        <v>112.042104738036</v>
+        <v>224.424010322082</v>
       </c>
       <c r="R8">
-        <v>1008.378942642324</v>
+        <v>2019.816092898738</v>
       </c>
       <c r="S8">
-        <v>9.934840697519448E-05</v>
+        <v>0.0001787286638530982</v>
       </c>
       <c r="T8">
-        <v>9.934840697519448E-05</v>
+        <v>0.0001787286638530982</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>554.525406</v>
       </c>
       <c r="I9">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="J9">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2408.188354666667</v>
+        <v>3030.731364</v>
       </c>
       <c r="N9">
-        <v>7224.565064</v>
+        <v>9092.194092</v>
       </c>
       <c r="O9">
-        <v>0.9432133721485603</v>
+        <v>0.9977108781814291</v>
       </c>
       <c r="P9">
-        <v>0.9432133721485604</v>
+        <v>0.9977108781814292</v>
       </c>
       <c r="Q9">
-        <v>445133.8750320018</v>
+        <v>560205.8466996779</v>
       </c>
       <c r="R9">
-        <v>4006204.875288016</v>
+        <v>5041852.620297101</v>
       </c>
       <c r="S9">
-        <v>0.3947028795873</v>
+        <v>0.4461414013573364</v>
       </c>
       <c r="T9">
-        <v>0.3947028795873</v>
+        <v>0.4461414013573364</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="H10">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="I10">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="J10">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>141.0704656666667</v>
+        <v>2.429935333333333</v>
       </c>
       <c r="N10">
-        <v>423.2113970000001</v>
+        <v>7.289806</v>
       </c>
       <c r="O10">
-        <v>0.05525296614535039</v>
+        <v>0.0007999299918632063</v>
       </c>
       <c r="P10">
-        <v>0.05525296614535039</v>
+        <v>0.0007999299918632063</v>
       </c>
       <c r="Q10">
-        <v>7163.371328186327</v>
+        <v>147.1349090714689</v>
       </c>
       <c r="R10">
-        <v>64470.34195367694</v>
+        <v>1324.21418164322</v>
       </c>
       <c r="S10">
-        <v>0.006351804365787654</v>
+        <v>0.0001171765252155965</v>
       </c>
       <c r="T10">
-        <v>0.006351804365787655</v>
+        <v>0.0001171765252155965</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="H11">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="I11">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="J11">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>9.928663999999999</v>
       </c>
       <c r="O11">
-        <v>0.001296250856544298</v>
+        <v>0.001089498967837074</v>
       </c>
       <c r="P11">
-        <v>0.001296250856544298</v>
+        <v>0.001089498967837074</v>
       </c>
       <c r="Q11">
-        <v>168.0548008134</v>
+        <v>200.3967012072978</v>
       </c>
       <c r="R11">
-        <v>1512.4932073206</v>
+        <v>1803.57031086568</v>
       </c>
       <c r="S11">
-        <v>0.0001490152008870373</v>
+        <v>0.0001595935951592107</v>
       </c>
       <c r="T11">
-        <v>0.0001490152008870373</v>
+        <v>0.0001595935951592107</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="H12">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="I12">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="J12">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6061513333333334</v>
+        <v>1.214141</v>
       </c>
       <c r="N12">
-        <v>1.818454</v>
+        <v>3.642423</v>
       </c>
       <c r="O12">
-        <v>0.0002374108495449544</v>
+        <v>0.0003996928588706414</v>
       </c>
       <c r="P12">
-        <v>0.0002374108495449544</v>
+        <v>0.0003996928588706414</v>
       </c>
       <c r="Q12">
-        <v>30.77956155615</v>
+        <v>73.51739907822333</v>
       </c>
       <c r="R12">
-        <v>277.01605400535</v>
+        <v>661.65659170401</v>
       </c>
       <c r="S12">
-        <v>2.729242203319969E-05</v>
+        <v>5.8548399025347E-05</v>
       </c>
       <c r="T12">
-        <v>2.729242203319969E-05</v>
+        <v>5.854839902534699E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="H13">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="I13">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="J13">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2408.188354666667</v>
+        <v>3030.731364</v>
       </c>
       <c r="N13">
-        <v>7224.565064</v>
+        <v>9092.194092</v>
       </c>
       <c r="O13">
-        <v>0.9432133721485603</v>
+        <v>0.9977108781814291</v>
       </c>
       <c r="P13">
-        <v>0.9432133721485604</v>
+        <v>0.9977108781814292</v>
       </c>
       <c r="Q13">
-        <v>122284.6138004034</v>
+        <v>183513.6834898716</v>
       </c>
       <c r="R13">
-        <v>1100561.524203631</v>
+        <v>1651623.151408844</v>
       </c>
       <c r="S13">
-        <v>0.1084305012571109</v>
+        <v>0.1461481567940677</v>
       </c>
       <c r="T13">
-        <v>0.1084305012571109</v>
+        <v>0.1461481567940677</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="H14">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="I14">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="J14">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>141.0704656666667</v>
+        <v>2.429935333333333</v>
       </c>
       <c r="N14">
-        <v>423.2113970000001</v>
+        <v>7.289806</v>
       </c>
       <c r="O14">
-        <v>0.05525296614535039</v>
+        <v>0.0007999299918632063</v>
       </c>
       <c r="P14">
-        <v>0.05525296614535039</v>
+        <v>0.0007999299918632063</v>
       </c>
       <c r="Q14">
-        <v>13434.38825922136</v>
+        <v>128.1781371086611</v>
       </c>
       <c r="R14">
-        <v>120909.4943329922</v>
+        <v>1153.60323397795</v>
       </c>
       <c r="S14">
-        <v>0.01191235272990012</v>
+        <v>0.0001020795731603416</v>
       </c>
       <c r="T14">
-        <v>0.01191235272990012</v>
+        <v>0.0001020795731603416</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="H15">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="I15">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="J15">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>9.928663999999999</v>
       </c>
       <c r="O15">
-        <v>0.001296250856544298</v>
+        <v>0.001089498967837074</v>
       </c>
       <c r="P15">
-        <v>0.001296250856544298</v>
+        <v>0.001089498967837074</v>
       </c>
       <c r="Q15">
-        <v>315.1747046910311</v>
+        <v>174.5777124244222</v>
       </c>
       <c r="R15">
-        <v>2836.57234221928</v>
+        <v>1571.1994118198</v>
       </c>
       <c r="S15">
-        <v>0.0002794673029674128</v>
+        <v>0.0001390316536780882</v>
       </c>
       <c r="T15">
-        <v>0.0002794673029674128</v>
+        <v>0.0001390316536780882</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="H16">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="I16">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="J16">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6061513333333334</v>
+        <v>1.214141</v>
       </c>
       <c r="N16">
-        <v>1.818454</v>
+        <v>3.642423</v>
       </c>
       <c r="O16">
-        <v>0.0002374108495449544</v>
+        <v>0.0003996928588706414</v>
       </c>
       <c r="P16">
-        <v>0.0002374108495449544</v>
+        <v>0.0003996928588706414</v>
       </c>
       <c r="Q16">
-        <v>57.72485627917557</v>
+        <v>64.04546221144166</v>
       </c>
       <c r="R16">
-        <v>519.5237065125801</v>
+        <v>576.409159902975</v>
       </c>
       <c r="S16">
-        <v>5.118497664442101E-05</v>
+        <v>5.100505899737398E-05</v>
       </c>
       <c r="T16">
-        <v>5.118497664442101E-05</v>
+        <v>5.100505899737398E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="H17">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="I17">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="J17">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2408.188354666667</v>
+        <v>3030.731364</v>
       </c>
       <c r="N17">
-        <v>7224.565064</v>
+        <v>9092.194092</v>
       </c>
       <c r="O17">
-        <v>0.9432133721485603</v>
+        <v>0.9977108781814291</v>
       </c>
       <c r="P17">
-        <v>0.9432133721485604</v>
+        <v>0.9977108781814292</v>
       </c>
       <c r="Q17">
-        <v>229336.0073991164</v>
+        <v>159869.8924145491</v>
       </c>
       <c r="R17">
-        <v>2064024.066592048</v>
+        <v>1438829.031730942</v>
       </c>
       <c r="S17">
-        <v>0.2033536147006963</v>
+        <v>0.1273185173929648</v>
       </c>
       <c r="T17">
-        <v>0.2033536147006963</v>
+        <v>0.1273185173929648</v>
       </c>
     </row>
   </sheetData>
